--- a/com.expedia/src/test/resources/test_data_expedia.xlsx
+++ b/com.expedia/src/test/resources/test_data_expedia.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\IdeaProjects\SeleniumBootcamp\com.expedia\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9677ABD9-246B-4E1E-8BB0-D5552F5BC161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83631641-029F-4CA1-93CA-3071089CF03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{DA26D599-9E8E-480C-B2B7-01991D537964}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="16200" windowHeight="9308" xr2:uid="{DA26D599-9E8E-480C-B2B7-01991D537964}"/>
   </bookViews>
   <sheets>
     <sheet name="Sign in_expedia" sheetId="1" r:id="rId1"/>
+    <sheet name="expedia_search" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>email</t>
   </si>
@@ -54,6 +55,24 @@
   </si>
   <si>
     <t>sadouni.dalal@gmail.com</t>
+  </si>
+  <si>
+    <t>Going</t>
+  </si>
+  <si>
+    <t>From_Date</t>
+  </si>
+  <si>
+    <t>End_Date</t>
+  </si>
+  <si>
+    <t>Virginia Beach</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
 </sst>
 </file>
@@ -108,13 +127,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -472,4 +492,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA505B8-0DF3-4690-A24E-22534AB9F0EF}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>